--- a/downloaded_files/MDPS217_Tutorial-35645.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35645.xlsx
@@ -918,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45918.5850415856</x:v>
+        <x:v>45919.3284298611</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>

--- a/downloaded_files/MDPS217_Tutorial-35645.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35645.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عادل محمد حمزاوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hamzawi</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -335,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1351,38 +1342,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45907.4204270833</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35645.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35645.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>obai ahmed mohmed abdelmawgood</x:t>
   </x:si>
   <x:si>
-    <x:t>4230141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود فريد على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mahmoud Fared Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240036</x:t>
   </x:si>
   <x:si>
@@ -87,15 +78,6 @@
     <x:t>Omar Khaled Mokbel</x:t>
   </x:si>
   <x:si>
-    <x:t>1240111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar mohamed salaheldeen</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230299</x:t>
   </x:si>
   <x:si>
@@ -105,6 +87,15 @@
     <x:t>Omar Mohamed Kamal</x:t>
   </x:si>
   <x:si>
+    <x:t>1220328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو عماد صبحى حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230091</x:t>
   </x:si>
   <x:si>
@@ -150,6 +141,15 @@
     <x:t>Mahmoud Ahmed Mahmoud Ali Mohamed Salama</x:t>
   </x:si>
   <x:si>
+    <x:t>1240366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود حماده حليم صالح الحوت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Hamada Halim Saleh Elhout</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230113</x:t>
   </x:si>
   <x:si>
@@ -166,15 +166,6 @@
   </x:si>
   <x:si>
     <x:t>moataz mohamed sabry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هنداوي محمد هنداوي درويش</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hendawy Mohamed Hendawy Darwish</x:t>
   </x:si>
   <x:si>
     <x:t>1240165</x:t>
@@ -326,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -634,7 +625,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.610625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="27.780625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.210625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -749,7 +740,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4188322917</x:v>
+        <x:v>45909.4296262732</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -781,7 +772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.4296262732</x:v>
+        <x:v>45927.4167604167</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -813,7 +804,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4240528588</x:v>
+        <x:v>45909.4670864583</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -845,7 +836,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4670864583</x:v>
+        <x:v>45909.4162042824</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4162042824</x:v>
+        <x:v>45907.422237581</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45919.3284298611</x:v>
+        <x:v>45927.4154049769</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.422237581</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45914.5104364583</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.5104364583</x:v>
+        <x:v>45907.4398489583</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4398489583</x:v>
+        <x:v>45907.4200609144</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4200609144</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45927.5064257755</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1197,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.70433125</x:v>
+        <x:v>45909.7056479167</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.7056479167</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45909.7059148148</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.7059148148</x:v>
+        <x:v>45909.4350654282</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1310,38 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45909.4350654282</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35645.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35645.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,15 +193,6 @@
   </x:si>
   <x:si>
     <x:t>Youssab Youssef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -317,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1188,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.7056479167</x:v>
+        <x:v>45927.7167216435</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1269,38 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45909.4350654282</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35645.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35645.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
   </x:si>
   <x:si>
     <x:t>1240332</x:t>
@@ -308,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -616,7 +625,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="27.780625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.150625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.210625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -795,7 +804,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4670864583</x:v>
+        <x:v>45928.9576583333</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -827,7 +836,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4162042824</x:v>
+        <x:v>45909.4670864583</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -859,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.422237581</x:v>
+        <x:v>45909.4162042824</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -891,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4154049769</x:v>
+        <x:v>45907.422237581</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -923,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45927.4154049769</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -955,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.5104364583</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -987,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4398489583</x:v>
+        <x:v>45914.5104364583</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4200609144</x:v>
+        <x:v>45907.4398489583</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45907.4200609144</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.5064257755</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45927.5064257755</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.420037963</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.7167216435</x:v>
+        <x:v>45907.420037963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45927.7167216435</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1243,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.7059148148</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1260,6 +1269,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45909.7059148148</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35645.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35645.xlsx
@@ -1307,11 +1307,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14501]14501-50-الجيزة الرئيسي Time : Wednesday(14:18)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14402] صالة ميكانيكا ب-120-الجيزة الرئيسي Time : Wednesday(14:18)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14501]14501-50-الجيزة الرئيسي Time : Wednesday(14:18)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14402] صالة ميكانيكا ب-120-الجيزة الرئيسي Time : Wednesday(14:18)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14501]14501-50-الجيزة الرئيسي Time : Wednesday(14:18)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14402] صالة ميكانيكا ب-120-الجيزة الرئيسي Time : Wednesday(14:18)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/MDPS217_Tutorial-35645.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35645.xlsx
@@ -54,7 +54,7 @@
     <x:t>1230179</x:t>
   </x:si>
   <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
+    <x:t>حمزة محمد سيد على على حسن</x:t>
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
